--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.400308</v>
+        <v>21.50919633333334</v>
       </c>
       <c r="H2">
-        <v>148.200924</v>
+        <v>64.52758900000001</v>
       </c>
       <c r="I2">
-        <v>0.3028101582105581</v>
+        <v>0.1832723264758264</v>
       </c>
       <c r="J2">
-        <v>0.3028101582105581</v>
+        <v>0.1832723264758264</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.387792333333333</v>
+        <v>0.04016966666666667</v>
       </c>
       <c r="N2">
-        <v>4.163377</v>
+        <v>0.120509</v>
       </c>
       <c r="O2">
-        <v>0.4491959817916776</v>
+        <v>0.01016394183724367</v>
       </c>
       <c r="P2">
-        <v>0.4491959817916776</v>
+        <v>0.01016394183724367</v>
       </c>
       <c r="Q2">
-        <v>68.55736870670533</v>
+        <v>0.864017246977889</v>
       </c>
       <c r="R2">
-        <v>617.016318360348</v>
+        <v>7.776155222801001</v>
       </c>
       <c r="S2">
-        <v>0.1360211063138849</v>
+        <v>0.001862769266676633</v>
       </c>
       <c r="T2">
-        <v>0.1360211063138849</v>
+        <v>0.001862769266676633</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.400308</v>
+        <v>21.50919633333334</v>
       </c>
       <c r="H3">
-        <v>148.200924</v>
+        <v>64.52758900000001</v>
       </c>
       <c r="I3">
-        <v>0.3028101582105581</v>
+        <v>0.1832723264758264</v>
       </c>
       <c r="J3">
-        <v>0.3028101582105581</v>
+        <v>0.1832723264758264</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.384786</v>
       </c>
       <c r="O3">
-        <v>0.1494076339570906</v>
+        <v>0.1167952962934662</v>
       </c>
       <c r="P3">
-        <v>0.1494076339570906</v>
+        <v>0.1167952962934662</v>
       </c>
       <c r="Q3">
-        <v>22.80295163802933</v>
+        <v>9.928544651217113</v>
       </c>
       <c r="R3">
-        <v>205.226564742264</v>
+        <v>89.35690186095401</v>
       </c>
       <c r="S3">
-        <v>0.04524214927641177</v>
+        <v>0.02140534567313701</v>
       </c>
       <c r="T3">
-        <v>0.04524214927641176</v>
+        <v>0.02140534567313701</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.400308</v>
+        <v>21.50919633333334</v>
       </c>
       <c r="H4">
-        <v>148.200924</v>
+        <v>64.52758900000001</v>
       </c>
       <c r="I4">
-        <v>0.3028101582105581</v>
+        <v>0.1832723264758264</v>
       </c>
       <c r="J4">
-        <v>0.3028101582105581</v>
+        <v>0.1832723264758264</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.240115333333333</v>
+        <v>3.450409</v>
       </c>
       <c r="N4">
-        <v>3.720346</v>
+        <v>10.351227</v>
       </c>
       <c r="O4">
-        <v>0.4013963842512318</v>
+        <v>0.8730407618692901</v>
       </c>
       <c r="P4">
-        <v>0.4013963842512318</v>
+        <v>0.8730407618692901</v>
       </c>
       <c r="Q4">
-        <v>61.26207942218933</v>
+        <v>74.21552461130034</v>
       </c>
       <c r="R4">
-        <v>551.358714799704</v>
+        <v>667.939721501703</v>
       </c>
       <c r="S4">
-        <v>0.1215469026202615</v>
+        <v>0.1600042115360128</v>
       </c>
       <c r="T4">
-        <v>0.1215469026202615</v>
+        <v>0.1600042115360128</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>208.692447</v>
       </c>
       <c r="I5">
-        <v>0.4264088994034781</v>
+        <v>0.5927317426910698</v>
       </c>
       <c r="J5">
-        <v>0.4264088994034782</v>
+        <v>0.5927317426910698</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.387792333333333</v>
+        <v>0.04016966666666667</v>
       </c>
       <c r="N5">
-        <v>4.163377</v>
+        <v>0.120509</v>
       </c>
       <c r="O5">
-        <v>0.4491959817916776</v>
+        <v>0.01016394183724367</v>
       </c>
       <c r="P5">
-        <v>0.4491959817916776</v>
+        <v>0.01016394183724367</v>
       </c>
       <c r="Q5">
-        <v>96.54059265705766</v>
+        <v>2.794368677280333</v>
       </c>
       <c r="R5">
-        <v>868.865333913519</v>
+        <v>25.149318095523</v>
       </c>
       <c r="S5">
-        <v>0.1915411642122541</v>
+        <v>0.006024490957800114</v>
       </c>
       <c r="T5">
-        <v>0.1915411642122541</v>
+        <v>0.006024490957800115</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>208.692447</v>
       </c>
       <c r="I6">
-        <v>0.4264088994034781</v>
+        <v>0.5927317426910698</v>
       </c>
       <c r="J6">
-        <v>0.4264088994034782</v>
+        <v>0.5927317426910698</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>1.384786</v>
       </c>
       <c r="O6">
-        <v>0.1494076339570906</v>
+        <v>0.1167952962934662</v>
       </c>
       <c r="P6">
-        <v>0.1494076339570906</v>
+        <v>0.1167952962934662</v>
       </c>
       <c r="Q6">
         <v>32.11048654570467</v>
@@ -818,10 +818,10 @@
         <v>288.994378911342</v>
       </c>
       <c r="S6">
-        <v>0.06370874475812074</v>
+        <v>0.06922827951014604</v>
       </c>
       <c r="T6">
-        <v>0.06370874475812074</v>
+        <v>0.06922827951014604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>208.692447</v>
       </c>
       <c r="I7">
-        <v>0.4264088994034781</v>
+        <v>0.5927317426910698</v>
       </c>
       <c r="J7">
-        <v>0.4264088994034782</v>
+        <v>0.5927317426910698</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.240115333333333</v>
+        <v>3.450409</v>
       </c>
       <c r="N7">
-        <v>3.720346</v>
+        <v>10.351227</v>
       </c>
       <c r="O7">
-        <v>0.4013963842512318</v>
+        <v>0.8730407618692901</v>
       </c>
       <c r="P7">
-        <v>0.4013963842512318</v>
+        <v>0.8730407618692901</v>
       </c>
       <c r="Q7">
-        <v>86.26756782518466</v>
+        <v>240.024765786941</v>
       </c>
       <c r="R7">
-        <v>776.408110426662</v>
+        <v>2160.222892082469</v>
       </c>
       <c r="S7">
-        <v>0.1711589904331034</v>
+        <v>0.5174789722231236</v>
       </c>
       <c r="T7">
-        <v>0.1711589904331034</v>
+        <v>0.5174789722231236</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>44.17507666666666</v>
+        <v>26.28859766666667</v>
       </c>
       <c r="H8">
-        <v>132.52523</v>
+        <v>78.86579300000001</v>
       </c>
       <c r="I8">
-        <v>0.2707809423859638</v>
+        <v>0.2239959308331038</v>
       </c>
       <c r="J8">
-        <v>0.2707809423859638</v>
+        <v>0.2239959308331038</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.387792333333333</v>
+        <v>0.04016966666666667</v>
       </c>
       <c r="N8">
-        <v>4.163377</v>
+        <v>0.120509</v>
       </c>
       <c r="O8">
-        <v>0.4491959817916776</v>
+        <v>0.01016394183724367</v>
       </c>
       <c r="P8">
-        <v>0.4491959817916776</v>
+        <v>0.01016394183724367</v>
       </c>
       <c r="Q8">
-        <v>61.30583272241221</v>
+        <v>1.056004205404111</v>
       </c>
       <c r="R8">
-        <v>551.75249450171</v>
+        <v>9.504037848637001</v>
       </c>
       <c r="S8">
-        <v>0.1216337112655387</v>
+        <v>0.002276681612766923</v>
       </c>
       <c r="T8">
-        <v>0.1216337112655387</v>
+        <v>0.002276681612766923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>44.17507666666666</v>
+        <v>26.28859766666667</v>
       </c>
       <c r="H9">
-        <v>132.52523</v>
+        <v>78.86579300000001</v>
       </c>
       <c r="I9">
-        <v>0.2707809423859638</v>
+        <v>0.2239959308331038</v>
       </c>
       <c r="J9">
-        <v>0.2707809423859638</v>
+        <v>0.2239959308331038</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>1.384786</v>
       </c>
       <c r="O9">
-        <v>0.1494076339570906</v>
+        <v>0.1167952962934662</v>
       </c>
       <c r="P9">
-        <v>0.1494076339570906</v>
+        <v>0.1167952962934662</v>
       </c>
       <c r="Q9">
-        <v>20.39100923897556</v>
+        <v>12.13469400281089</v>
       </c>
       <c r="R9">
-        <v>183.51908315078</v>
+        <v>109.212246025298</v>
       </c>
       <c r="S9">
-        <v>0.04045673992255813</v>
+        <v>0.02616167111018311</v>
       </c>
       <c r="T9">
-        <v>0.04045673992255812</v>
+        <v>0.02616167111018311</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.17507666666666</v>
+        <v>26.28859766666667</v>
       </c>
       <c r="H10">
-        <v>132.52523</v>
+        <v>78.86579300000001</v>
       </c>
       <c r="I10">
-        <v>0.2707809423859638</v>
+        <v>0.2239959308331038</v>
       </c>
       <c r="J10">
-        <v>0.2707809423859638</v>
+        <v>0.2239959308331038</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.240115333333333</v>
+        <v>3.450409</v>
       </c>
       <c r="N10">
-        <v>3.720346</v>
+        <v>10.351227</v>
       </c>
       <c r="O10">
-        <v>0.4013963842512318</v>
+        <v>0.8730407618692901</v>
       </c>
       <c r="P10">
-        <v>0.4013963842512318</v>
+        <v>0.8730407618692901</v>
       </c>
       <c r="Q10">
-        <v>54.78218992550888</v>
+        <v>90.70641398644568</v>
       </c>
       <c r="R10">
-        <v>493.0397093295799</v>
+        <v>816.3577258780111</v>
       </c>
       <c r="S10">
-        <v>0.108690491197867</v>
+        <v>0.1955575781101538</v>
       </c>
       <c r="T10">
-        <v>0.108690491197867</v>
+        <v>0.1955575781101537</v>
       </c>
     </row>
   </sheetData>
